--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DA5B9-05D8-4D16-B113-682DE05B336C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zs123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +384,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>13511111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>13522222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DA5B9-05D8-4D16-B113-682DE05B336C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14BFB3-E790-42DA-948B-BD5D5F6A4204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>ls123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,6 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,18 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +414,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -423,8 +431,11 @@
       <c r="D2">
         <v>13511111111</v>
       </c>
+      <c r="E2" t="n">
+        <v>9959.0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -436,6 +447,9 @@
       </c>
       <c r="D3">
         <v>13522222222</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9990.0</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -432,7 +432,7 @@
         <v>13511111111</v>
       </c>
       <c r="E2" t="n">
-        <v>9959.0</v>
+        <v>9935.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -432,7 +432,7 @@
         <v>13511111111</v>
       </c>
       <c r="E2" t="n">
-        <v>9935.0</v>
+        <v>9795.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>13522222222</v>
       </c>
       <c r="E3" t="n">
-        <v>9990.0</v>
+        <v>9987.0</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14BFB3-E790-42DA-948B-BD5D5F6A4204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A425FCBB-7C12-4481-8621-34308CFA50A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,27 +43,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhangsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zs123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lisi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ls123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂电花江校区F区34栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂电花江校区D区30栋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +75,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,12 +396,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -415,41 +418,41 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>13511111111</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9795.0</v>
+        <v>13567439867</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>13522222222</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9987.0</v>
+        <v>18267329882</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A425FCBB-7C12-4481-8621-34308CFA50A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0B306-E1CF-490C-A491-31FD607FDE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,6 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +402,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -434,8 +436,8 @@
       <c r="D2">
         <v>13567439867</v>
       </c>
-      <c r="E2">
-        <v>1000</v>
+      <c r="E2" t="n">
+        <v>854.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -451,8 +453,8 @@
       <c r="D3">
         <v>18267329882</v>
       </c>
-      <c r="E3">
-        <v>1000</v>
+      <c r="E3" t="n">
+        <v>709.0</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -437,7 +437,7 @@
         <v>13567439867</v>
       </c>
       <c r="E2" t="n">
-        <v>854.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>18267329882</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0</v>
+        <v>679.0</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -437,7 +437,7 @@
         <v>13567439867</v>
       </c>
       <c r="E2" t="n">
-        <v>848.0</v>
+        <v>811.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>18267329882</v>
       </c>
       <c r="E3" t="n">
-        <v>679.0</v>
+        <v>663.0</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0B306-E1CF-490C-A491-31FD607FDE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,15 +62,19 @@
   </si>
   <si>
     <t>桂电花江校区D区30栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -209,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -393,68 +391,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>20201201</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>13567439867</v>
       </c>
-      <c r="E2" t="n">
-        <v>811.0</v>
+      <c r="F2">
+        <v>811</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20201202</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>18267329882</v>
       </c>
-      <c r="E3" t="n">
-        <v>663.0</v>
+      <c r="F3">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071D7BB6-D1DD-4073-95F6-9F7383472B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="924" yWindow="2316" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桂电花江校区F区34栋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,15 +64,22 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,23 +396,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -425,38 +430,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20201201</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>13567439867</v>
       </c>
       <c r="F2">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20201202</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>18267329882</v>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,6 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,9 +406,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -446,8 +447,8 @@
       <c r="E2">
         <v>13567439867</v>
       </c>
-      <c r="F2">
-        <v>808</v>
+      <c r="F2" t="n">
+        <v>796.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
